--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt2</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt2</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H2">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>0.02586136085288889</v>
+        <v>3.814301603363333</v>
       </c>
       <c r="R2">
-        <v>0.232752247676</v>
+        <v>34.32871443027</v>
       </c>
       <c r="S2">
-        <v>0.001642162755134198</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="T2">
-        <v>0.001642162755134198</v>
+        <v>0.3549648016839516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H3">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>0.03118290346088888</v>
+        <v>5.151113214384445</v>
       </c>
       <c r="R3">
-        <v>0.280646131148</v>
+        <v>46.36001892946</v>
       </c>
       <c r="S3">
-        <v>0.001980073784659201</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="T3">
-        <v>0.001980073784659202</v>
+        <v>0.4793705560628121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H4">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.0003126936404444444</v>
+        <v>0.03356576076333333</v>
       </c>
       <c r="R4">
-        <v>0.002814242764</v>
+        <v>0.30209184687</v>
       </c>
       <c r="S4">
-        <v>1.985563919184982E-05</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="T4">
-        <v>1.985563919184982E-05</v>
+        <v>0.003123681567871192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H5">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>0.03709880728544444</v>
+        <v>1.741220156427778</v>
       </c>
       <c r="R5">
-        <v>0.3338892655689999</v>
+        <v>15.67098140785</v>
       </c>
       <c r="S5">
-        <v>0.002355725977863717</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="T5">
-        <v>0.002355725977863717</v>
+        <v>0.1620406385718132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H6">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,338 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.0003052055745555555</v>
+        <v>0.005376249788333334</v>
       </c>
       <c r="R6">
-        <v>0.002746850171</v>
+        <v>0.048386248095</v>
       </c>
       <c r="S6">
-        <v>1.938015675375722E-05</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="T6">
-        <v>1.938015675375722E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.303765</v>
-      </c>
-      <c r="I7">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J7">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.416422666666667</v>
-      </c>
-      <c r="N7">
-        <v>7.249268</v>
-      </c>
-      <c r="O7">
-        <v>0.2729115228630338</v>
-      </c>
-      <c r="P7">
-        <v>0.2729115228630338</v>
-      </c>
-      <c r="Q7">
-        <v>4.272045988224445</v>
-      </c>
-      <c r="R7">
-        <v>38.44841389402</v>
-      </c>
-      <c r="S7">
-        <v>0.2712693601078996</v>
-      </c>
-      <c r="T7">
-        <v>0.2712693601078996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H8">
-        <v>5.303765</v>
-      </c>
-      <c r="I8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.913654666666667</v>
-      </c>
-      <c r="N8">
-        <v>8.740964</v>
-      </c>
-      <c r="O8">
-        <v>0.3290690586319825</v>
-      </c>
-      <c r="P8">
-        <v>0.3290690586319827</v>
-      </c>
-      <c r="Q8">
-        <v>5.151113214384445</v>
-      </c>
-      <c r="R8">
-        <v>46.36001892946</v>
-      </c>
-      <c r="S8">
-        <v>0.3270889848473233</v>
-      </c>
-      <c r="T8">
-        <v>0.3270889848473235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.303765</v>
-      </c>
-      <c r="I9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.02921733333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.08765200000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.003299814657423431</v>
-      </c>
-      <c r="P9">
-        <v>0.003299814657423431</v>
-      </c>
-      <c r="Q9">
-        <v>0.05165395664222223</v>
-      </c>
-      <c r="R9">
-        <v>0.46488560978</v>
-      </c>
-      <c r="S9">
-        <v>0.003279959018231581</v>
-      </c>
-      <c r="T9">
-        <v>0.003279959018231581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H10">
-        <v>5.303765</v>
-      </c>
-      <c r="I10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.466422333333333</v>
-      </c>
-      <c r="N10">
-        <v>10.399267</v>
-      </c>
-      <c r="O10">
-        <v>0.3914988097597292</v>
-      </c>
-      <c r="P10">
-        <v>0.3914988097597293</v>
-      </c>
-      <c r="Q10">
-        <v>6.128363148917223</v>
-      </c>
-      <c r="R10">
-        <v>55.15526834025501</v>
-      </c>
-      <c r="S10">
-        <v>0.3891430837818655</v>
-      </c>
-      <c r="T10">
-        <v>0.3891430837818656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H11">
-        <v>5.303765</v>
-      </c>
-      <c r="I11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02851766666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.085553</v>
-      </c>
-      <c r="O11">
-        <v>0.003220794087830817</v>
-      </c>
-      <c r="P11">
-        <v>0.003220794087830817</v>
-      </c>
-      <c r="Q11">
-        <v>0.05041700078277778</v>
-      </c>
-      <c r="R11">
-        <v>0.453753007045</v>
-      </c>
-      <c r="S11">
-        <v>0.00320141393107706</v>
-      </c>
-      <c r="T11">
-        <v>0.00320141393107706</v>
+        <v>0.000500322113551896</v>
       </c>
     </row>
   </sheetData>
